--- a/xls/sample.xlsx
+++ b/xls/sample.xlsx
@@ -128,9 +128,8 @@
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
+      <pieChart>
+        <varyColors val="1"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
@@ -145,32 +144,8 @@
             </numRef>
           </val>
         </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
+        <firstSliceAng val="0"/>
+      </pieChart>
     </plotArea>
     <legend>
       <legendPos val="r"/>
@@ -507,7 +482,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -517,7 +492,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -527,32 +502,32 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
